--- a/Input/GIG/rateSheet1.xlsx
+++ b/Input/GIG/rateSheet1.xlsx
@@ -10,6 +10,9 @@
   <sheets>
     <sheet name="rates" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">rates!$A$1:$J$9</definedName>
+  </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -55,7 +58,7 @@
     <t xml:space="preserve">Smart Health - Global</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 1 / (OP) AXA 1</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 1 _ (OP) AXA 1</t>
   </si>
   <si>
     <t xml:space="preserve">Worldwide excluding USA</t>
@@ -79,7 +82,7 @@
     <t xml:space="preserve">Smart Health - Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 3 / (OP) AXA 4</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 3 _ (OP) AXA 4</t>
   </si>
   <si>
     <t xml:space="preserve">UAE + Home Country</t>
@@ -88,7 +91,7 @@
     <t xml:space="preserve">Smart Health - Regional</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 2 / (OP) AXA 2</t>
+    <t xml:space="preserve">AXA Gulf - (IP) AXA 2 _ (OP) AXA 2</t>
   </si>
   <si>
     <t xml:space="preserve">UAE, GCC, ME, SEA including ISC</t>
@@ -97,7 +100,7 @@
     <t xml:space="preserve">Smart Health - Silver</t>
   </si>
   <si>
-    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 4 / (OP) AXA 5</t>
+    <t xml:space="preserve">AXA Gulf (In-house) - (IP) AXA 4 _ (OP) AXA 5</t>
   </si>
   <si>
     <t xml:space="preserve">AED 25</t>
@@ -113,7 +116,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -135,6 +138,18 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,12 +194,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -200,6 +223,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -208,7 +235,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -222,34 +249,34 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -257,7 +284,7 @@
       <c r="A2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -289,7 +316,7 @@
       <c r="A3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -321,7 +348,7 @@
       <c r="A4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -353,7 +380,7 @@
       <c r="A5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -385,7 +412,7 @@
       <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -417,7 +444,7 @@
       <c r="A7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -449,7 +476,7 @@
       <c r="A8" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -481,7 +508,7 @@
       <c r="A9" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -510,6 +537,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J9"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -517,5 +545,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>